--- a/data/s_vals/2022/davis_austin.xlsx
+++ b/data/s_vals/2022/davis_austin.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6717081370404667</v>
+        <v>0.1190320826869504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01782408538546121</v>
+        <v>6.240767534437808e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.997367292136135</v>
+        <v>11.06429076507272</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.539653030276356</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C3" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D3" t="n">
-        <v>1.050893113504925</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.716438157779083</v>
+        <v>16.0466451790395</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.349824325366695</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C4" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E4" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.220588038447512</v>
+        <v>3.754798637575387</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6717081370404667</v>
+        <v>0.1190320826869504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D5" t="n">
-        <v>5.12556560802943</v>
+        <v>261.3203778131603</v>
       </c>
       <c r="E5" t="n">
-        <v>1.910992563374965</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.232957454593556</v>
+        <v>1394.783147649974</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4405202784308186</v>
+        <v>0.04271373187048222</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5246911461486936</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E6" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1.528615082440686</v>
+        <v>0.9931934699307545</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.539653030276356</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C7" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2181074402325811</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E7" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>3.410416743357174</v>
+        <v>2.960089034096801</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.349824325366695</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C8" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E8" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.491783709146979</v>
+        <v>4.358119930609447</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C9" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E9" t="n">
-        <v>0.345296217628593</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>5.78408098597105</v>
+        <v>6.189590430959694</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.349824325366695</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C10" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D10" t="n">
-        <v>1.050893113504925</v>
+        <v>3.537761648806719</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>5.526609452869423</v>
+        <v>16.84135478251809</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/davis_austin.xlsx
+++ b/data/s_vals/2022/davis_austin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>11.06429076507272</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>16.0466451790395</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>3.754798637575387</v>
       </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>1394.783147649974</v>
       </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>0.9931934699307545</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>2.960089034096801</v>
       </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>4.358119930609447</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>6.189590430959694</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -688,6 +717,9 @@
       </c>
       <c r="G10" t="n">
         <v>16.84135478251809</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/davis_austin.xlsx
+++ b/data/s_vals/2022/davis_austin.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1190320826869504</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C2" t="n">
-        <v>6.240767534437808e-05</v>
+        <v>6.708468553440206e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.06429076507272</v>
+        <v>14.7020076569547</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6606524410359556</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C3" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D3" t="n">
-        <v>3.537761648806719</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E3" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>16.0466451790395</v>
+        <v>19.36876847130326</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.455362044514542</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C4" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.754798637575387</v>
+        <v>3.755628166162433</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1190320826869504</v>
+        <v>0.1169995834814548</v>
       </c>
       <c r="C5" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D5" t="n">
-        <v>261.3203778131603</v>
+        <v>189.6080260415259</v>
       </c>
       <c r="E5" t="n">
-        <v>1133.036916526867</v>
+        <v>2797.565817734744</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1394.783147649974</v>
+        <v>2987.595734608384</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04271373187048222</v>
+        <v>0.04172184405617529</v>
       </c>
       <c r="C6" t="n">
-        <v>0.306821227259698</v>
+        <v>0.3048912486333797</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9931934699307545</v>
+        <v>1.029605918290258</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -617,22 +617,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6606524410359556</v>
+        <v>0.6545652718822623</v>
       </c>
       <c r="C7" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1494219747398047</v>
+        <v>0.1496068669990043</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.960089034096801</v>
+        <v>2.964545797025059</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -645,22 +645,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.455362044514542</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C8" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.358119930609447</v>
+        <v>4.327115817150455</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -673,22 +673,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C9" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4942365360607697</v>
+        <v>0.5333859586016987</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>6.189590430959694</v>
+        <v>6.15379541431027</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -701,22 +701,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.455362044514542</v>
+        <v>1.445647641019636</v>
       </c>
       <c r="C10" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D10" t="n">
-        <v>3.537761648806719</v>
+        <v>3.223369029078222</v>
       </c>
       <c r="E10" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>16.84135478251809</v>
+        <v>20.15985084044064</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
